--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1321 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_15</t>
+          <t>model_2_4_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9582666630816326</v>
+        <v>0.9702437637433134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7813957684962529</v>
+        <v>0.817133172791732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9006882861808609</v>
+        <v>0.959535073626328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9068000822472835</v>
+        <v>0.9904245637387056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9174691289021017</v>
+        <v>0.9670765403457938</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2790710161374704</v>
+        <v>0.1989800888633326</v>
       </c>
       <c r="H2" t="n">
-        <v>1.461807502645488</v>
+        <v>1.222831315566003</v>
       </c>
       <c r="I2" t="n">
-        <v>1.482981981480267</v>
+        <v>0.430568826678295</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1985944663882331</v>
+        <v>0.02818088214206403</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8407880927166149</v>
+        <v>0.2293748544101795</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3545122533355456</v>
+        <v>2.070730143764628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5282717256653723</v>
+        <v>0.4460718427151982</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027070272595698</v>
+        <v>1.01930134243677</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5507613467001742</v>
+        <v>0.4650620445555959</v>
       </c>
       <c r="P2" t="n">
-        <v>124.5525779828459</v>
+        <v>125.2291010304535</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.9040032998062</v>
+        <v>199.5805263474137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_16</t>
+          <t>model_2_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9572937354198917</v>
+        <v>0.9659532575523359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7813557256111053</v>
+        <v>0.8169152861350689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8964878578070086</v>
+        <v>0.9590063312273156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9115520818814217</v>
+        <v>0.9945871605842441</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9148876614587522</v>
+        <v>0.9675519543814579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2855769878914508</v>
+        <v>0.227670723518364</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46207526960285</v>
+        <v>1.224288324642385</v>
       </c>
       <c r="I3" t="n">
-        <v>1.545705293296894</v>
+        <v>0.4361949334023136</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1884686974565191</v>
+        <v>0.01593019737867446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8670869437917399</v>
+        <v>0.2260626865408143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3515581390928986</v>
+        <v>2.126260914634869</v>
       </c>
       <c r="M3" t="n">
-        <v>0.534394038038834</v>
+        <v>0.4771485340209733</v>
       </c>
       <c r="N3" t="n">
-        <v>1.027701360808719</v>
+        <v>1.022084373479566</v>
       </c>
       <c r="O3" t="n">
-        <v>0.557144298586308</v>
+        <v>0.4974617349478773</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5064872527456</v>
+        <v>124.9597097779549</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.8579125697058</v>
+        <v>199.3111350949152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_14</t>
+          <t>model_2_4_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9592151982144033</v>
+        <v>0.9735564832074308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7813334065543798</v>
+        <v>0.8166923275614045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9050711518099425</v>
+        <v>0.9595268278690927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.901614387038444</v>
+        <v>0.9864345694172224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9201389405748439</v>
+        <v>0.9662274232659387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2727281573370294</v>
+        <v>0.1768279185531092</v>
       </c>
       <c r="H4" t="n">
-        <v>1.462224517237944</v>
+        <v>1.225779249651109</v>
       </c>
       <c r="I4" t="n">
-        <v>1.41753440731984</v>
+        <v>0.4306565660203874</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2096443728439873</v>
+        <v>0.03992359094957094</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8135892296199843</v>
+        <v>0.2352905785963546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3573736786064417</v>
+        <v>2.014535654976232</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5222338148157676</v>
+        <v>0.4205091182758219</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02645500656363</v>
+        <v>1.017152551433018</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5444663894855033</v>
+        <v>0.4384110620147008</v>
       </c>
       <c r="P4" t="n">
-        <v>124.5985594811328</v>
+        <v>125.4651564617537</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9499847980931</v>
+        <v>199.816581778714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_17</t>
+          <t>model_2_4_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9563160586981077</v>
+        <v>0.9761269601069634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7812370711951839</v>
+        <v>0.8158110601496356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8924863271956344</v>
+        <v>0.9591941012930689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9158869767981724</v>
+        <v>0.9828774239208402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9124083571295225</v>
+        <v>0.9652220511646143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2921147166318082</v>
+        <v>0.1596391276899769</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46286871222847</v>
+        <v>1.231672288891471</v>
       </c>
       <c r="I5" t="n">
-        <v>1.605458544618452</v>
+        <v>0.4341969577690423</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1792317135234932</v>
+        <v>0.05039240879350811</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8923450021462236</v>
+        <v>0.2422949178058844</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3487168407353518</v>
+        <v>1.959287410007393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5404763793467835</v>
+        <v>0.3995486549720533</v>
       </c>
       <c r="N5" t="n">
-        <v>1.028335529493119</v>
+        <v>1.015485215065753</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5634855777559191</v>
+        <v>0.4165582683939502</v>
       </c>
       <c r="P5" t="n">
-        <v>124.4612173773755</v>
+        <v>125.6696789260974</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.8126426943358</v>
+        <v>200.0211042430576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_13</t>
+          <t>model_2_4_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9601144291865997</v>
+        <v>0.9603501830439473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7811394002362461</v>
+        <v>0.8157388387067954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9096139521028331</v>
+        <v>0.9576001476712324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8959785803900694</v>
+        <v>0.9982323415553189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9228788742285898</v>
+        <v>0.9672481074567491</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2667149956853742</v>
+        <v>0.2651385085557444</v>
       </c>
       <c r="H6" t="n">
-        <v>1.463521838380621</v>
+        <v>1.232155234012293</v>
       </c>
       <c r="I6" t="n">
-        <v>1.349698592985904</v>
+        <v>0.4511574913035926</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2216533964674935</v>
+        <v>0.005202287701327971</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7856759947266989</v>
+        <v>0.2281795614029965</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3600657056045302</v>
+        <v>2.178920587582748</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5164445717454819</v>
+        <v>0.514916020876943</v>
       </c>
       <c r="N6" t="n">
-        <v>1.025871721608692</v>
+        <v>1.02571880018771</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5384306863523303</v>
+        <v>0.5368370619087812</v>
       </c>
       <c r="P6" t="n">
-        <v>124.6431492451661</v>
+        <v>124.6550058314941</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.9945745621263</v>
+        <v>199.0064311484543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_18</t>
+          <t>model_2_4_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9553489386565939</v>
+        <v>0.9781244312692281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7810592906763998</v>
+        <v>0.8146462655824058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8886942388808257</v>
+        <v>0.9586672597249558</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9198256846877353</v>
+        <v>0.9798030578285981</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9100410963558395</v>
+        <v>0.9641705126472634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2985818528025896</v>
+        <v>0.1462820288304039</v>
       </c>
       <c r="H7" t="n">
-        <v>1.464057531376183</v>
+        <v>1.239461275525922</v>
       </c>
       <c r="I7" t="n">
-        <v>1.662084278147575</v>
+        <v>0.4398028386183745</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1708389422587991</v>
+        <v>0.05944038803360172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9164616102031869</v>
+        <v>0.249620894384815</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3460077603987628</v>
+        <v>1.906029789981494</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5464264386013817</v>
+        <v>0.3824683370298827</v>
       </c>
       <c r="N7" t="n">
-        <v>1.028962850601128</v>
+        <v>1.014189558095636</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5696889433513063</v>
+        <v>0.3987508059558489</v>
       </c>
       <c r="P7" t="n">
-        <v>124.4174223399904</v>
+        <v>125.844437632595</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.7688476569506</v>
+        <v>200.1958629495553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_19</t>
+          <t>model_2_4_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9544043573742667</v>
+        <v>0.9796739955838598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.780838351278285</v>
+        <v>0.8133100918080081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8851183335564863</v>
+        <v>0.958026420123344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9233908540445519</v>
+        <v>0.9771765799600254</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9077932201928519</v>
+        <v>0.9631263088484364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3048982721869086</v>
+        <v>0.1359200851233743</v>
       </c>
       <c r="H8" t="n">
-        <v>1.465534954148709</v>
+        <v>1.248396275707834</v>
       </c>
       <c r="I8" t="n">
-        <v>1.71548183780637</v>
+        <v>0.4466217205510126</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1632421232586015</v>
+        <v>0.06717021477394314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9393619805324858</v>
+        <v>0.2568957706234033</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3433355502092014</v>
+        <v>1.855459181095729</v>
       </c>
       <c r="M8" t="n">
-        <v>0.552175943143948</v>
+        <v>0.368673412552864</v>
       </c>
       <c r="N8" t="n">
-        <v>1.029575551973449</v>
+        <v>1.013184435296956</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5756832162053648</v>
+        <v>0.3843686029844131</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3755541836458</v>
+        <v>125.9913763506862</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.7269795006061</v>
+        <v>200.3428016676464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_12</t>
+          <t>model_2_4_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9609325921464209</v>
+        <v>0.9808704697354587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7807776407975126</v>
+        <v>0.8118824831874477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9142861572851761</v>
+        <v>0.9573206291706347</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8898736923655406</v>
+        <v>0.9749352886930537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9256646055613402</v>
+        <v>0.9621138384986797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2612439362057554</v>
+        <v>0.1279192569623759</v>
       </c>
       <c r="H9" t="n">
-        <v>1.465940925413181</v>
+        <v>1.257942701127055</v>
       </c>
       <c r="I9" t="n">
-        <v>1.279930427351267</v>
+        <v>0.4541317201882784</v>
       </c>
       <c r="J9" t="n">
-        <v>0.234661959230478</v>
+        <v>0.07376642233222204</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7572961932908724</v>
+        <v>0.263949562706897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3625037289173813</v>
+        <v>1.807983787095089</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5111202756746747</v>
+        <v>0.3576580167735318</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02534102131043</v>
+        <v>1.012408343955378</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5328797239749766</v>
+        <v>0.3728842590017419</v>
       </c>
       <c r="P9" t="n">
-        <v>124.6846013733363</v>
+        <v>126.1127120381703</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.0360266902966</v>
+        <v>200.4641373551305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_20</t>
+          <t>model_2_4_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9534911493813393</v>
+        <v>0.9817876642165251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7805873767921687</v>
+        <v>0.8104201838579794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8817609003445319</v>
+        <v>0.9565825856133079</v>
       </c>
       <c r="E10" t="n">
-        <v>0.926606012922478</v>
+        <v>0.9730152911891375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9056688448502078</v>
+        <v>0.9611447700646162</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3110048982405497</v>
+        <v>0.1217859732441925</v>
       </c>
       <c r="H10" t="n">
-        <v>1.467213221693001</v>
+        <v>1.267721103476478</v>
       </c>
       <c r="I10" t="n">
-        <v>1.765617041055598</v>
+        <v>0.4619849050818111</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1563911219153465</v>
+        <v>0.07941704982265085</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9610041790067653</v>
+        <v>0.270700977452231</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3407459138338185</v>
+        <v>1.763801022271779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5576781313988829</v>
+        <v>0.3489784710325158</v>
       </c>
       <c r="N10" t="n">
-        <v>1.030167903103996</v>
+        <v>1.011813406994686</v>
       </c>
       <c r="O10" t="n">
-        <v>0.581419644005412</v>
+        <v>0.3638352070293943</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3358932339146</v>
+        <v>126.2109801850735</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.6873185508749</v>
+        <v>200.5624055020338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_21</t>
+          <t>model_2_4_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9526158687612525</v>
+        <v>0.9824835111451536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7803169282518109</v>
+        <v>0.8089633183528934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8786210018472843</v>
+        <v>0.955833707308542</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9294982297163591</v>
+        <v>0.971361058404787</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9036701547045631</v>
+        <v>0.960223490766192</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3168579037773667</v>
+        <v>0.1171328416283723</v>
       </c>
       <c r="H11" t="n">
-        <v>1.469021712327674</v>
+        <v>1.277463169817238</v>
       </c>
       <c r="I11" t="n">
-        <v>1.812503885678733</v>
+        <v>0.4699533775814346</v>
       </c>
       <c r="J11" t="n">
-        <v>0.150228259707851</v>
+        <v>0.08428552138459476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.981365952160652</v>
+        <v>0.2771194494830147</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3382521670038202</v>
+        <v>1.72295797291987</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5629013268569961</v>
+        <v>0.342246755467999</v>
       </c>
       <c r="N11" t="n">
-        <v>1.030735652695404</v>
+        <v>1.011362046824765</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5868652017076823</v>
+        <v>0.3568169083967239</v>
       </c>
       <c r="P11" t="n">
-        <v>124.2986037173371</v>
+        <v>126.2888931794574</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.6500290342973</v>
+        <v>200.6403184964177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_11</t>
+          <t>model_2_4_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9616297024915564</v>
+        <v>0.9830042625669121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7802031730192113</v>
+        <v>0.807539808346952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.919049033258562</v>
+        <v>0.9550892547079519</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8832696017473003</v>
+        <v>0.9699264382180285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9284645811211967</v>
+        <v>0.9593519767231169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2565823561179367</v>
+        <v>0.1136505744732338</v>
       </c>
       <c r="H12" t="n">
-        <v>1.469782394091862</v>
+        <v>1.286982187781628</v>
       </c>
       <c r="I12" t="n">
-        <v>1.20880831116848</v>
+        <v>0.4778747581813565</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2487342447424546</v>
+        <v>0.08850766451190985</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7287712779554673</v>
+        <v>0.2831912113466332</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3645915212455246</v>
+        <v>1.68537953620175</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5065395898821105</v>
+        <v>0.33712100865006</v>
       </c>
       <c r="N12" t="n">
-        <v>1.024888841627098</v>
+        <v>1.01102426211876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5281040289048962</v>
+        <v>0.3514729479249864</v>
       </c>
       <c r="P12" t="n">
-        <v>124.7206111788443</v>
+        <v>126.349253347877</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.0720364958046</v>
+        <v>200.7006786648372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_22</t>
+          <t>model_2_4_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9517831702737186</v>
+        <v>0.9833867590344774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7800357198409955</v>
+        <v>0.8061687760765277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8756954604109409</v>
+        <v>0.9543595935978622</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9320935767715868</v>
+        <v>0.9686758155563503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9017974833560741</v>
+        <v>0.9585306398095096</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3224261623977296</v>
+        <v>0.1110928188333903</v>
       </c>
       <c r="H13" t="n">
-        <v>1.470902154265642</v>
+        <v>1.296150286886979</v>
       </c>
       <c r="I13" t="n">
-        <v>1.856189822305224</v>
+        <v>0.4856387492768287</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1446979805407303</v>
+        <v>0.09218829575117893</v>
       </c>
       <c r="K13" t="n">
-        <v>1.000443901422977</v>
+        <v>0.2889133935522419</v>
       </c>
       <c r="L13" t="n">
-        <v>0.335879791092656</v>
+        <v>1.650966822451408</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5678258204746678</v>
+        <v>0.3333058937873591</v>
       </c>
       <c r="N13" t="n">
-        <v>1.031275781444075</v>
+        <v>1.010776156301961</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5919993412137654</v>
+        <v>0.3474954157242038</v>
       </c>
       <c r="P13" t="n">
-        <v>124.2637622455315</v>
+        <v>126.3947784427776</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.6151875624917</v>
+        <v>200.7462037597378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_23</t>
+          <t>model_2_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9509959434651348</v>
+        <v>0.9836606213275971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7797505672035767</v>
+        <v>0.8048625727337283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8729785557672634</v>
+        <v>0.9536528327974894</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9344185825995595</v>
+        <v>0.9675789806217218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9000494579479382</v>
+        <v>0.9577592194375635</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3276903516915758</v>
+        <v>0.1092615004182785</v>
       </c>
       <c r="H14" t="n">
-        <v>1.472808971265069</v>
+        <v>1.304884874654792</v>
       </c>
       <c r="I14" t="n">
-        <v>1.896760269405869</v>
+        <v>0.4931590686207618</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1397437563000945</v>
+        <v>0.09541632371550329</v>
       </c>
       <c r="K14" t="n">
-        <v>1.018252012852982</v>
+        <v>0.294287811592224</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3336305564721784</v>
+        <v>1.619535608583383</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5724424439990241</v>
+        <v>0.3305472741050491</v>
       </c>
       <c r="N14" t="n">
-        <v>1.031786415049642</v>
+        <v>1.010598515895613</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5968125039592816</v>
+        <v>0.344619355890888</v>
       </c>
       <c r="P14" t="n">
-        <v>124.2313723324288</v>
+        <v>126.4280223671202</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.582797649389</v>
+        <v>200.7794476840804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_10</t>
+          <t>model_2_4_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9621545402924155</v>
+        <v>0.9838494770112408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7793593368421562</v>
+        <v>0.8036286058147244</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9238521937294375</v>
+        <v>0.9529738609870713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.876113793823046</v>
+        <v>0.9666132712124242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9312363815718108</v>
+        <v>0.9570367674676618</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2530727633269356</v>
+        <v>0.1079986215921531</v>
       </c>
       <c r="H15" t="n">
-        <v>1.475425130493338</v>
+        <v>1.313136417124066</v>
       </c>
       <c r="I15" t="n">
-        <v>1.137084642745652</v>
+        <v>0.5003836979963278</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2639821536522515</v>
+        <v>0.09825844414785384</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7005333981989519</v>
+        <v>0.2993210710720908</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3662222244433517</v>
+        <v>1.590921989415826</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5030633790358184</v>
+        <v>0.3286314373156548</v>
       </c>
       <c r="N15" t="n">
-        <v>1.024548406296812</v>
+        <v>1.010476014911628</v>
       </c>
       <c r="O15" t="n">
-        <v>0.524479828566129</v>
+        <v>0.3426219579630402</v>
       </c>
       <c r="P15" t="n">
-        <v>124.7481564590428</v>
+        <v>126.45127362995</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.0995817760031</v>
+        <v>200.8026989469102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_9</t>
+          <t>model_2_4_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9624416379515803</v>
+        <v>0.9839724697021137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7781741876542465</v>
+        <v>0.8024710010969731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9286327461013283</v>
+        <v>0.9523270270086058</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8683058126470321</v>
+        <v>0.965759200219485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9339234081795401</v>
+        <v>0.9563624060963827</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2511529399581378</v>
+        <v>0.107176168901957</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48335022857</v>
+        <v>1.320877325201949</v>
       </c>
       <c r="I16" t="n">
-        <v>1.065698571995249</v>
+        <v>0.5072663633592065</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2806197418884777</v>
+        <v>0.1007720083694931</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6731591569418636</v>
+        <v>0.3040192875712555</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3672908684306167</v>
+        <v>1.564907485270922</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5011516137439226</v>
+        <v>0.3273777159520131</v>
       </c>
       <c r="N16" t="n">
-        <v>1.024362180788164</v>
+        <v>1.010396235868899</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5224866754678573</v>
+        <v>0.3413148630853873</v>
       </c>
       <c r="P16" t="n">
-        <v>124.7633864057392</v>
+        <v>126.4665627201558</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.1148117226994</v>
+        <v>200.8179880371161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_8</t>
+          <t>model_2_4_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9624070164532336</v>
+        <v>0.9840446627867208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7765557356689</v>
+        <v>0.8013909392069708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9333120579764489</v>
+        <v>0.9517142743220265</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8596708420489689</v>
+        <v>0.9650021361391276</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9364497501177381</v>
+        <v>0.9557345894074925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2513844540769997</v>
+        <v>0.1066934134127712</v>
       </c>
       <c r="H17" t="n">
-        <v>1.494172824448298</v>
+        <v>1.328099704033622</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9958242849683641</v>
+        <v>0.5137863852386014</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2990195154027678</v>
+        <v>0.1030000774663323</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6474219001855659</v>
+        <v>0.3083932313524669</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3677083395631028</v>
+        <v>1.541308138000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5013825426528128</v>
+        <v>0.3266395772296602</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024384637976281</v>
+        <v>1.010349407922127</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5227274354984878</v>
+        <v>0.3405453002694662</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7615436442811</v>
+        <v>126.4755917050889</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.1129689612413</v>
+        <v>200.8270170220492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_7</t>
+          <t>model_2_4_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9619425852156323</v>
+        <v>0.9840782552954023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7743855620782794</v>
+        <v>0.8003881850039918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9377927493554941</v>
+        <v>0.9511373791985187</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8499101453133922</v>
+        <v>0.9643289667393823</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9387127970454804</v>
+        <v>0.9551518277721786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2544901079013488</v>
+        <v>0.1064687801525382</v>
       </c>
       <c r="H18" t="n">
-        <v>1.508684785241509</v>
+        <v>1.334805126006201</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9289159181285861</v>
+        <v>0.519924863142933</v>
       </c>
       <c r="J18" t="n">
-        <v>0.319818035471448</v>
+        <v>0.1049812412481381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6243669768000171</v>
+        <v>0.3124532805289478</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3674146980455227</v>
+        <v>1.519925542213414</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5044701258760015</v>
+        <v>0.326295541116544</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024685890670941</v>
+        <v>1.010327618186766</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5259464635316661</v>
+        <v>0.3401866178267616</v>
       </c>
       <c r="P18" t="n">
-        <v>124.7369866250079</v>
+        <v>126.4798069618308</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.0884119419681</v>
+        <v>200.8312322787911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_6</t>
+          <t>model_2_4_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9609093516023685</v>
+        <v>0.9840828347371771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7715113027698071</v>
+        <v>0.7994606119811765</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9419559602683364</v>
+        <v>0.9505965690115186</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8385400221772856</v>
+        <v>0.9637294294697041</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9405748692486563</v>
+        <v>0.9546122401351044</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2613993458308476</v>
+        <v>0.1064381574043039</v>
       </c>
       <c r="H19" t="n">
-        <v>1.52790497047201</v>
+        <v>1.341007811080848</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8667483597266558</v>
+        <v>0.5256793776951647</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3440459917983489</v>
+        <v>0.1067457028011715</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6053970069525915</v>
+        <v>0.3162125402481681</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3664261294965884</v>
+        <v>1.500572834484502</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5112722815006184</v>
+        <v>0.3262486128772104</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025356096257923</v>
+        <v>1.010324647738047</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5330382010036262</v>
+        <v>0.3401376917551247</v>
       </c>
       <c r="P19" t="n">
-        <v>124.68341196071</v>
+        <v>126.4803822882865</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.0348372776703</v>
+        <v>200.8318076052468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_5</t>
+          <t>model_2_4_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9591298244389653</v>
+        <v>0.9840660942053183</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7677382123943522</v>
+        <v>0.7986055419806735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9456581035927655</v>
+        <v>0.9500919744530408</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8248205988778368</v>
+        <v>0.9631950122878918</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9418532904684109</v>
+        <v>0.954114030102299</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2732990521664934</v>
+        <v>0.1065501014179264</v>
       </c>
       <c r="H20" t="n">
-        <v>1.553135643186161</v>
+        <v>1.346725668111447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8114657386555479</v>
+        <v>0.5310485382611745</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3732799397996488</v>
+        <v>0.1083185133974075</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5923730157509126</v>
+        <v>0.3196835258292909</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3649143991930474</v>
+        <v>1.483067330079705</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5227801183733879</v>
+        <v>0.3264201302277885</v>
       </c>
       <c r="N20" t="n">
-        <v>1.026510384147698</v>
+        <v>1.010335506461415</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5450359503165757</v>
+        <v>0.3403165109544068</v>
       </c>
       <c r="P20" t="n">
-        <v>124.5943773083213</v>
+        <v>126.4782799372077</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.9458026252815</v>
+        <v>200.8297052541679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_4</t>
+          <t>model_2_4_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9563811399885723</v>
+        <v>0.9840339714083908</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7628234838822477</v>
+        <v>0.7978195577841047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9487286425521863</v>
+        <v>0.9496230330559134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8077087053908893</v>
+        <v>0.9627169675898022</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9423140832725342</v>
+        <v>0.9536549028202735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2916795177427993</v>
+        <v>0.1067649067088929</v>
       </c>
       <c r="H21" t="n">
-        <v>1.586000455376848</v>
+        <v>1.351981548053027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.765614612185745</v>
+        <v>0.5360383297976152</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4097427118478953</v>
+        <v>0.1097254175767979</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5876786620168202</v>
+        <v>0.3228822253152019</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3632882097300334</v>
+        <v>1.46724593801619</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5400736225208552</v>
+        <v>0.3267489964925568</v>
       </c>
       <c r="N21" t="n">
-        <v>1.028293314602007</v>
+        <v>1.010356342870233</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5630656747380895</v>
+        <v>0.3406593777369133</v>
       </c>
       <c r="P21" t="n">
-        <v>124.4641992428617</v>
+        <v>126.4742519906425</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.8156245598219</v>
+        <v>200.8256773076027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_3</t>
+          <t>model_2_4_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9523968507892876</v>
+        <v>0.9839911797976838</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7564823533763047</v>
+        <v>0.7970988424562677</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9509750177440128</v>
+        <v>0.9491884367590001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7859320975259252</v>
+        <v>0.9622900622922241</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9416830032183726</v>
+        <v>0.9532329054955314</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3183224779643812</v>
+        <v>0.1070510544067273</v>
       </c>
       <c r="H22" t="n">
-        <v>1.62840362426831</v>
+        <v>1.356800974768862</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7320703926268117</v>
+        <v>0.5406626707864688</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4561452615815005</v>
+        <v>0.110981816507205</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5941078271041562</v>
+        <v>0.3258222436468369</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3623557908673222</v>
+        <v>1.452958667997754</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5642007426123978</v>
+        <v>0.3271865743069652</v>
       </c>
       <c r="N22" t="n">
-        <v>1.030877718406949</v>
+        <v>1.010384099590692</v>
       </c>
       <c r="O22" t="n">
-        <v>0.588219936281953</v>
+        <v>0.341115584144792</v>
       </c>
       <c r="P22" t="n">
-        <v>124.2893806567728</v>
+        <v>126.4688988286582</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.6408059737331</v>
+        <v>200.8203241456185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_2</t>
+          <t>model_2_4_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9468899490072217</v>
+        <v>0.9839413744231208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7484241775579348</v>
+        <v>0.7964394307347271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9522040290819362</v>
+        <v>0.9487871596109733</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7583879144806178</v>
+        <v>0.9619078838909018</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9397031364272389</v>
+        <v>0.9528457289141117</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3551471555380071</v>
+        <v>0.107384103175763</v>
       </c>
       <c r="H23" t="n">
-        <v>1.682288683070237</v>
+        <v>1.361210463987116</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7137180593613259</v>
+        <v>0.5449324779079057</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5148376130972634</v>
+        <v>0.1121065824385955</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6142778362292947</v>
+        <v>0.3285196689152308</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3647421938295168</v>
+        <v>1.440062154604288</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5959422417801973</v>
+        <v>0.3276951375528221</v>
       </c>
       <c r="N23" t="n">
-        <v>1.034449762806126</v>
+        <v>1.010416405779597</v>
       </c>
       <c r="O23" t="n">
-        <v>0.621312736783287</v>
+        <v>0.3416457979808961</v>
       </c>
       <c r="P23" t="n">
-        <v>124.0704461055104</v>
+        <v>126.4626862459719</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.4218714224707</v>
+        <v>200.8141115629321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_1</t>
+          <t>model_2_4_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9396067583439993</v>
+        <v>0.9838873439511582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7384292469371437</v>
+        <v>0.7958370923083617</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9522733491805176</v>
+        <v>0.9484173808459064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.725007665649401</v>
+        <v>0.9615656905039488</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9362630106317829</v>
+        <v>0.9524910913065568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4038498850389845</v>
+        <v>0.1077454051905644</v>
       </c>
       <c r="H24" t="n">
-        <v>1.749124830153891</v>
+        <v>1.365238303817734</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7126829301384243</v>
+        <v>0.5488671251017516</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5859657091770342</v>
+        <v>0.1131136709141875</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6493243196577292</v>
+        <v>0.3309903980079696</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3721137827436624</v>
+        <v>1.428425071552621</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6354918449822818</v>
+        <v>0.3282459522835954</v>
       </c>
       <c r="N24" t="n">
-        <v>1.039173994587676</v>
+        <v>1.010451452572222</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6625460484726494</v>
+        <v>0.3422200620351021</v>
       </c>
       <c r="P24" t="n">
-        <v>123.8134240835131</v>
+        <v>126.4559683883011</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.1648494004733</v>
+        <v>200.8073937052613</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_0</t>
+          <t>model_2_4_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9303794072669329</v>
+        <v>0.9838311392874156</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7264194022518955</v>
+        <v>0.7952877944552157</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9511496098658598</v>
+        <v>0.9480773627130918</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6877060273181237</v>
+        <v>0.9612587177248265</v>
       </c>
       <c r="F25" t="n">
-        <v>0.931538408992526</v>
+        <v>0.9521666319361518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4655532241793721</v>
+        <v>0.1081212460358098</v>
       </c>
       <c r="H25" t="n">
-        <v>1.829434716864396</v>
+        <v>1.368911461091006</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7294632785125689</v>
+        <v>0.5524851029807518</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6654496737386978</v>
+        <v>0.1140171037681283</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6974564761256333</v>
+        <v>0.3332508779705955</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3888358427161546</v>
+        <v>1.417932107126974</v>
       </c>
       <c r="M25" t="n">
-        <v>0.68231460791879</v>
+        <v>0.3288179527273561</v>
       </c>
       <c r="N25" t="n">
-        <v>1.045159303394422</v>
+        <v>1.010487909651406</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7113621533638459</v>
+        <v>0.3428164137219579</v>
       </c>
       <c r="P25" t="n">
-        <v>123.529057702288</v>
+        <v>126.4490040661535</v>
       </c>
       <c r="Q25" t="n">
-        <v>197.8804830192482</v>
+        <v>200.8004293831138</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_2_4_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9837744902005274</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7947876712045119</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9477655969111737</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9609835009046706</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9518703900574755</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1085000587406762</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.372255787571318</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5558024606917414</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.114827077597068</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3353147691444047</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.408476790732427</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3293934710049308</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.010524655005063</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.3434164330040959</v>
+      </c>
+      <c r="P26" t="n">
+        <v>126.4420091292261</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>200.7934344461864</v>
       </c>
     </row>
   </sheetData>
